--- a/config_8.10/game_activity_config.xlsx
+++ b/config_8.10/game_activity_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="220">
   <si>
     <t>line|行号</t>
   </si>
@@ -782,14 +782,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>枫叶兑换</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋日榜单</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_ty_task","act_dlyl_nor","panel"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -843,6 +835,14 @@
   </si>
   <si>
     <t>platform_limit_notcjj_show</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心兑换</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分排行榜</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1493,10 +1493,10 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4335,7 +4335,7 @@
         <v>121</v>
       </c>
       <c r="M62" s="61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N62" s="6">
         <v>1</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I76" s="53">
         <v>1627344000</v>
@@ -5012,8 +5012,8 @@
       <c r="C77" s="55">
         <v>76</v>
       </c>
-      <c r="D77" s="56" t="s">
-        <v>207</v>
+      <c r="D77" s="53" t="s">
+        <v>218</v>
       </c>
       <c r="E77" s="56" t="s">
         <v>195</v>
@@ -5059,8 +5059,8 @@
       <c r="C78" s="55">
         <v>77</v>
       </c>
-      <c r="D78" s="56" t="s">
-        <v>208</v>
+      <c r="D78" s="53" t="s">
+        <v>219</v>
       </c>
       <c r="E78" s="56" t="s">
         <v>196</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I79" s="53">
         <v>1627948800</v>
@@ -5134,7 +5134,7 @@
         <v>190</v>
       </c>
       <c r="M79" s="60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N79" s="53">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E80" s="56" t="s">
         <v>198</v>
@@ -5201,7 +5201,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E81" s="56" t="s">
         <v>200</v>
@@ -5228,7 +5228,7 @@
         <v>192</v>
       </c>
       <c r="M81" s="53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N81" s="53">
         <v>1</v>
@@ -5248,10 +5248,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F82" s="53">
         <v>3</v>
@@ -5272,10 +5272,10 @@
         <v>21</v>
       </c>
       <c r="L82" s="56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M82" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N82" s="53">
         <v>1</v>
@@ -5295,10 +5295,10 @@
         <v>82</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E83" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F83" s="53">
         <v>3</v>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="58" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I83" s="53">
         <v>1628553600</v>
@@ -5319,10 +5319,10 @@
         <v>21</v>
       </c>
       <c r="L83" s="56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M83" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N83" s="53">
         <v>1</v>
@@ -5341,17 +5341,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5362,17 +5362,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5380,13 +5380,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -5398,13 +5398,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
